--- a/biology/Médecine/Unité_de_formation_et_de_recherche_de_médecine_de_l'université_Paris-Cité/Unité_de_formation_et_de_recherche_de_médecine_de_l'université_Paris-Cité.xlsx
+++ b/biology/Médecine/Unité_de_formation_et_de_recherche_de_médecine_de_l'université_Paris-Cité/Unité_de_formation_et_de_recherche_de_médecine_de_l'université_Paris-Cité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_de_formation_et_de_recherche_de_m%C3%A9decine_de_l%27universit%C3%A9_Paris-Cit%C3%A9</t>
+          <t>Unité_de_formation_et_de_recherche_de_médecine_de_l'université_Paris-Cité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'UFR de médecine d'Université Paris-Cité est une UFR universitaire, composante de la faculté de santé d'Université Paris-Cité.
-L'UFR de médecine d'Université Paris-Cité est issue de la fusion des UFR de médecine Paris Centre (ex-Descartes) (d) et Paris Nord (ex-Diderot) le 1er mars 2021, lors de l'élection du professeur Philippe Ruszniewski (d), doyen de l'UFR pour une durée de cinq ans[1].
-Elle est la première UFR de médecine de France par son nombre d'étudiants, d'enseignants et d'unités de recherche[1]. Elle revendique avec la faculté de médecine de Sorbonne Université, l'héritage de la faculté de médecine de Paris.
+L'UFR de médecine d'Université Paris-Cité est issue de la fusion des UFR de médecine Paris Centre (ex-Descartes) (d) et Paris Nord (ex-Diderot) le 1er mars 2021, lors de l'élection du professeur Philippe Ruszniewski (d), doyen de l'UFR pour une durée de cinq ans.
+Elle est la première UFR de médecine de France par son nombre d'étudiants, d'enseignants et d'unités de recherche. Elle revendique avec la faculté de médecine de Sorbonne Université, l'héritage de la faculté de médecine de Paris.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_de_formation_et_de_recherche_de_m%C3%A9decine_de_l%27universit%C3%A9_Paris-Cit%C3%A9</t>
+          <t>Unité_de_formation_et_de_recherche_de_médecine_de_l'université_Paris-Cité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,13 +527,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'UFR Paris Centre, ex-Descartes
-L'UFR de médecine Paris Centre (d) a été créée en 2004 par la fusion des anciennes facultés de médecine Broussais-Hôtel-Dieu, Cochin-Port-Royal, et Necker-Enfants malades. Elle est associée au GHU Ouest de l'AP-HP avec, entre autres, les hôpitaux Necker-Enfants malades, Cochin, Georges Pompidou et l'Hôtel-Dieu de Paris.
+          <t>L'UFR Paris Centre, ex-Descartes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'UFR de médecine Paris Centre (d) a été créée en 2004 par la fusion des anciennes facultés de médecine Broussais-Hôtel-Dieu, Cochin-Port-Royal, et Necker-Enfants malades. Elle est associée au GHU Ouest de l'AP-HP avec, entre autres, les hôpitaux Necker-Enfants malades, Cochin, Georges Pompidou et l'Hôtel-Dieu de Paris.
 Elle était la deuxième UFR de médecine de France par le nombre d'étudiants (après la faculté de médecine de Lille), et la première par le nombre d'enseignants, et d'unités de recherche. Elle revendiquait avec l'UFR de médecine Paris Nord et la faculté de médecine de Sorbonne Université, l'héritage de la Faculté de médecine de Paris.
-L'UFR Paris Nord, ex-Diderot
-L'UFR de médecine Paris Nord est créée par le professeur Jean Bernard, opposé à une scission de la médecine et de la biologie. Elle revendiquait avec la faculté de médecine Paris Centre d'Université Paris-Cité et celle de Sorbonne Université, l'héritage de la Faculté de médecine de Paris.
-La faculté Paris Nord dispose de plusieurs sites pour ses formations médicales, dont l'hôpital Saint-Louis[2] , l'hôpital Bichat-Claude-Bernard[3]  l'Hôpital Lariboisière, l'Hôpital Louis Mourier, l'hôpital Beaujon, et l'Hôpital Robert-Debré.
-Elle disposait de ressources propres comme une bibliothèque de 576 places à Bichat[4].
 </t>
         </is>
       </c>
@@ -532,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_de_formation_et_de_recherche_de_m%C3%A9decine_de_l%27universit%C3%A9_Paris-Cit%C3%A9</t>
+          <t>Unité_de_formation_et_de_recherche_de_médecine_de_l'université_Paris-Cité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +560,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L'UFR Paris Nord, ex-Diderot</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'UFR de médecine Paris Nord est créée par le professeur Jean Bernard, opposé à une scission de la médecine et de la biologie. Elle revendiquait avec la faculté de médecine Paris Centre d'Université Paris-Cité et celle de Sorbonne Université, l'héritage de la Faculté de médecine de Paris.
+La faculté Paris Nord dispose de plusieurs sites pour ses formations médicales, dont l'hôpital Saint-Louis , l'hôpital Bichat-Claude-Bernard  l'Hôpital Lariboisière, l'Hôpital Louis Mourier, l'hôpital Beaujon, et l'Hôpital Robert-Debré.
+Elle disposait de ressources propres comme une bibliothèque de 576 places à Bichat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unité_de_formation_et_de_recherche_de_médecine_de_l'université_Paris-Cité</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Unit%C3%A9_de_formation_et_de_recherche_de_m%C3%A9decine_de_l%27universit%C3%A9_Paris-Cit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Sites et hôpitaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Siège[5] : Site Odéon, 85, boulevard Saint-Germain ou 12, rue de l'École-de-Médecine, dans le 6e arrondissement de Paris. Il abrite le musée d'histoire de la médecine ainsi que la bibliothèque interuniversitaire de santé.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Siège : Site Odéon, 85, boulevard Saint-Germain ou 12, rue de l'École-de-Médecine, dans le 6e arrondissement de Paris. Il abrite le musée d'histoire de la médecine ainsi que la bibliothèque interuniversitaire de santé.
 Sites :
-Site des Cordeliers, 15 rue de l’École-de-Médecine (ex-UFR de médecine Paris-Descartes) C'est le site historique de l'Académie nationale de Chirurgie[6] improprement appelé les Cordeliers[7]. Le bâtiment a été construit à la fin du XVIIIe siècle sur l'emplacement de l'ancien Collège de Bourgogne que les chirurgiens, rattachés aux Cordeliers, utilisaient depuis la fin du Moyen Âge.
+Site des Cordeliers, 15 rue de l’École-de-Médecine (ex-UFR de médecine Paris-Descartes) C'est le site historique de l'Académie nationale de Chirurgie improprement appelé les Cordeliers. Le bâtiment a été construit à la fin du XVIIIe siècle sur l'emplacement de l'ancien Collège de Bourgogne que les chirurgiens, rattachés aux Cordeliers, utilisaient depuis la fin du Moyen Âge.
 Site Bichat, 16 rue Henri Huchard (ex-UFR de médecine Paris-Diderot)
 Site Cochin, 24 rue du Faubourg Saint-Jacques
 Site Necker, 160 rue de Vaugirard
@@ -562,7 +616,7 @@
 Site Saint-Germain-des-Prés, 45 rue des Saints Pères : centre de simulation
 Site Pajol, 20 rue du Département : centre de simulation
 Hôpitaux :
-Groupe Hospitalo-Universitaire APHP. Centre - Université Paris-Cité[8] :
+Groupe Hospitalo-Universitaire APHP. Centre - Université Paris-Cité :
 Hôpital Cochin,
 Hôpital Necker-Enfants malades,
 Maternité de Port-Royal,
@@ -572,7 +626,7 @@
 Hôpital européen Georges-Pompidou,
 Hôpital Corentin Celton,
 Hôtel-Dieu.
-Groupe Hospitalo-Universitaire APHP. Nord - Université Paris-Cité[8] :
+Groupe Hospitalo-Universitaire APHP. Nord - Université Paris-Cité :
 Hôpital Louis Mourier,
 Hôpital Beaujon,
 Hôpital Bichat Claude Bernard,
@@ -593,35 +647,37 @@
 Hôpital Suisse,
 Institut Gustave Roussy,
 Hôpital Américain,
-Institut Arthur Vernes[9].</t>
+Institut Arthur Vernes.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Unit%C3%A9_de_formation_et_de_recherche_de_m%C3%A9decine_de_l%27universit%C3%A9_Paris-Cit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unité_de_formation_et_de_recherche_de_médecine_de_l'université_Paris-Cité</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Unit%C3%A9_de_formation_et_de_recherche_de_m%C3%A9decine_de_l%27universit%C3%A9_Paris-Cit%C3%A9</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Formation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Médecine (formation initiale 1er et 2e cycle) : DFGSM2 au DFASM3, avant la suppression de la PACES l'organisation de la première année était la responsabilité de l'UFR biomédicale des Saints-Pères
 Médecine (formation initiale 3e Cycle): DES, DESC, DU
@@ -631,31 +687,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Unit%C3%A9_de_formation_et_de_recherche_de_m%C3%A9decine_de_l%27universit%C3%A9_Paris-Cit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unité_de_formation_et_de_recherche_de_médecine_de_l'université_Paris-Cité</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Unit%C3%A9_de_formation_et_de_recherche_de_m%C3%A9decine_de_l%27universit%C3%A9_Paris-Cit%C3%A9</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Laboratoires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ses unités de recherche sont groupés en instituts fédératifs de recherche (IFR) :
 l'IFR Alfred Lost, dont fait partie l'Institut Cochin
@@ -681,31 +739,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Unit%C3%A9_de_formation_et_de_recherche_de_m%C3%A9decine_de_l%27universit%C3%A9_Paris-Cit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Unité_de_formation_et_de_recherche_de_médecine_de_l'université_Paris-Cité</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Unit%C3%A9_de_formation_et_de_recherche_de_m%C3%A9decine_de_l%27universit%C3%A9_Paris-Cit%C3%A9</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Informations pratiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Doyen de l'UFR : Philippe Ruszniewski (d)
 Chef des services administratifs : Mathias Guérin
